--- a/dataset/升学率+高等教育支出+高等教育比例.xlsx
+++ b/dataset/升学率+高等教育支出+高等教育比例.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10308"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$41</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
   <si>
     <t>Country Name</t>
   </si>
@@ -57,21 +60,6 @@
   <si>
     <t>South Africa</t>
   </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>SE.TER.ENRR</t>
-  </si>
-  <si>
-    <t>SE.XPD.TERT.PC.ZS</t>
-  </si>
-  <si>
-    <t>SE.XPD.TERT.ZS</t>
-  </si>
-  <si>
-    <t>SE.TER.CUAT.ST.ZS</t>
-  </si>
 </sst>
 </file>
 
@@ -80,8 +68,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -107,7 +95,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,8 +130,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -137,86 +215,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,24 +231,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,25 +259,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,13 +313,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,19 +415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,109 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +468,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -498,32 +495,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,7 +535,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,21 +565,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,2339 +1055,2292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BM41"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.8148148148148" customWidth="1"/>
-    <col min="2" max="2" width="21.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="108.87962962963" customWidth="1"/>
-    <col min="4" max="4" width="16.8888888888889" customWidth="1"/>
-    <col min="16" max="26" width="12.8888888888889"/>
-    <col min="27" max="27" width="11.7777777777778"/>
-    <col min="28" max="63" width="12.8888888888889"/>
+    <col min="2" max="2" width="108.87962962963" customWidth="1"/>
+    <col min="14" max="24" width="12.8888888888889"/>
+    <col min="25" max="25" width="11.7777777777778"/>
+    <col min="26" max="61" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:63">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1"/>
+      <c r="C1">
+        <v>1960</v>
+      </c>
+      <c r="D1">
+        <v>1961</v>
+      </c>
       <c r="E1">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="F1">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="G1">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="H1">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="I1">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="J1">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="K1">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="L1">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="M1">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="N1">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="O1">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="P1">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="Q1">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="R1">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="S1">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="T1">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="U1">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="V1">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="W1">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="X1">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="Y1">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="Z1">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="AA1">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="AB1">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="AC1">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="AD1">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="AE1">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="AF1">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="AG1">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="AH1">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="AI1">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="AJ1">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="AK1">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="AL1">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="AM1">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="AN1">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="AO1">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="AP1">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="AQ1">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="AR1">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="AS1">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="AT1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="AU1">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="AV1">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="AW1">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="AX1">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="AY1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="AZ1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="BA1">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="BB1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="BC1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="BD1">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="BE1">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="BF1">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="BG1">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="BH1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="BI1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="BJ1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="BK1">
-        <v>2018</v>
-      </c>
-      <c r="BL1">
-        <v>2019</v>
-      </c>
-      <c r="BM1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="15:64">
-      <c r="O2">
+    <row r="2" hidden="1" spans="13:62">
+      <c r="M2">
         <v>0.128209993243217</v>
       </c>
+      <c r="P2">
+        <v>0.206389993429184</v>
+      </c>
+      <c r="Q2">
+        <v>0.338420003652573</v>
+      </c>
       <c r="R2">
-        <v>0.206389993429184</v>
+        <v>0.475859999656677</v>
       </c>
       <c r="S2">
-        <v>0.338420003652573</v>
+        <v>0.565069973468781</v>
       </c>
       <c r="T2">
-        <v>0.475859999656677</v>
+        <v>0.637220025062561</v>
       </c>
       <c r="U2">
-        <v>0.565069973468781</v>
+        <v>0.706300020217896</v>
       </c>
       <c r="V2">
-        <v>0.637220025062561</v>
+        <v>0.966149985790253</v>
       </c>
       <c r="W2">
-        <v>0.706300020217896</v>
+        <v>1.1303299665451</v>
       </c>
       <c r="X2">
-        <v>0.966149985790253</v>
-      </c>
-      <c r="Y2">
-        <v>1.1303299665451</v>
-      </c>
-      <c r="Z2">
         <v>1.78178000450134</v>
       </c>
+      <c r="AA2">
+        <v>2.01842999458313</v>
+      </c>
+      <c r="AB2">
+        <v>2.43659996986389</v>
+      </c>
       <c r="AC2">
-        <v>2.01842999458313</v>
+        <v>2.97222995758057</v>
       </c>
       <c r="AD2">
-        <v>2.43659996986389</v>
+        <v>3.11257004737854</v>
       </c>
       <c r="AE2">
-        <v>2.97222995758057</v>
+        <v>3.08206009864807</v>
       </c>
       <c r="AF2">
-        <v>3.11257004737854</v>
+        <v>2.99196004867554</v>
       </c>
       <c r="AG2">
-        <v>3.08206009864807</v>
+        <v>2.97255992889404</v>
       </c>
       <c r="AH2">
-        <v>2.99196004867554</v>
+        <v>2.89145994186401</v>
       </c>
       <c r="AI2">
-        <v>2.97255992889404</v>
+        <v>2.80566000938416</v>
       </c>
       <c r="AJ2">
-        <v>2.89145994186401</v>
+        <v>2.88968992233276</v>
       </c>
       <c r="AK2">
-        <v>2.80566000938416</v>
+        <v>3.61140990257263</v>
       </c>
       <c r="AL2">
-        <v>2.88968992233276</v>
+        <v>4.39014005661011</v>
       </c>
       <c r="AM2">
-        <v>3.61140990257263</v>
+        <v>4.91531991958618</v>
       </c>
       <c r="AN2">
-        <v>4.39014005661011</v>
+        <v>5.35011005401611</v>
       </c>
       <c r="AO2">
-        <v>4.91531991958618</v>
+        <v>5.86393022537231</v>
       </c>
       <c r="AP2">
-        <v>5.35011005401611</v>
+        <v>6.39427995681763</v>
       </c>
       <c r="AQ2">
-        <v>5.86393022537231</v>
+        <v>7.59041023254395</v>
       </c>
       <c r="AR2">
-        <v>6.39427995681763</v>
+        <v>9.78911018371582</v>
       </c>
       <c r="AS2">
-        <v>7.59041023254395</v>
+        <v>12.6284799575806</v>
       </c>
       <c r="AT2">
-        <v>9.78911018371582</v>
+        <v>15.4526796340942</v>
       </c>
       <c r="AU2">
-        <v>12.6284799575806</v>
+        <v>17.6912593841553</v>
       </c>
       <c r="AV2">
-        <v>15.4526796340942</v>
+        <v>19.0869998931885</v>
       </c>
       <c r="AW2">
-        <v>17.6912593841553</v>
+        <v>20.2191905975342</v>
       </c>
       <c r="AX2">
-        <v>19.0869998931885</v>
+        <v>20.52121925354</v>
       </c>
       <c r="AY2">
-        <v>20.2191905975342</v>
+        <v>20.6841201782227</v>
       </c>
       <c r="AZ2">
-        <v>20.52121925354</v>
+        <v>22.4430599212646</v>
       </c>
       <c r="BA2">
-        <v>20.6841201782227</v>
+        <v>24.1984901428223</v>
       </c>
       <c r="BB2">
-        <v>22.4430599212646</v>
+        <v>25.6478500366211</v>
       </c>
       <c r="BC2">
-        <v>24.1984901428223</v>
+        <v>28.7256698608398</v>
       </c>
       <c r="BD2">
-        <v>25.6478500366211</v>
+        <v>32.4336700439453</v>
       </c>
       <c r="BE2">
-        <v>28.7256698608398</v>
+        <v>42.4307289123535</v>
       </c>
       <c r="BF2">
-        <v>32.4336700439453</v>
+        <v>46.0404281616211</v>
       </c>
       <c r="BG2">
-        <v>42.4307289123535</v>
+        <v>48.0190200805664</v>
       </c>
       <c r="BH2">
-        <v>46.0404281616211</v>
+        <v>49.0732612609863</v>
       </c>
       <c r="BI2">
-        <v>48.0190200805664</v>
+        <v>50.6044387817383</v>
       </c>
       <c r="BJ2">
-        <v>49.0732612609863</v>
-      </c>
-      <c r="BK2">
-        <v>50.6044387817383</v>
-      </c>
-      <c r="BL2">
         <v>53.7649116516113</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" hidden="1" spans="1:42">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3"/>
-      <c r="AQ3">
+      <c r="B3" s="2"/>
+      <c r="AO3">
         <v>58.74403</v>
       </c>
-      <c r="AR3">
+      <c r="AP3">
         <v>89.11563</v>
       </c>
     </row>
-    <row r="7" spans="1:63">
+    <row r="4" hidden="1"/>
+    <row r="5" hidden="1"/>
+    <row r="6" hidden="1"/>
+    <row r="7" hidden="1" spans="1:61">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7"/>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="D7"/>
+      <c r="N7">
+        <v>14.5803098678589</v>
+      </c>
+      <c r="O7">
+        <v>15.4380102157593</v>
+      </c>
       <c r="P7">
-        <v>14.5803098678589</v>
+        <v>16.0658397674561</v>
       </c>
       <c r="Q7">
-        <v>15.4380102157593</v>
+        <v>16.7200794219971</v>
       </c>
       <c r="R7">
-        <v>16.0658397674561</v>
+        <v>18.5451202392578</v>
       </c>
       <c r="S7">
-        <v>16.7200794219971</v>
+        <v>19.1802406311035</v>
       </c>
       <c r="T7">
-        <v>18.5451202392578</v>
+        <v>19.3252296447754</v>
       </c>
       <c r="U7">
-        <v>19.1802406311035</v>
+        <v>19.1264095306396</v>
       </c>
       <c r="V7">
-        <v>19.3252296447754</v>
+        <v>19.164119720459</v>
       </c>
       <c r="W7">
-        <v>19.1264095306396</v>
+        <v>18.8495807647705</v>
       </c>
       <c r="X7">
-        <v>19.164119720459</v>
+        <v>18.8853206634521</v>
       </c>
       <c r="Y7">
-        <v>18.8495807647705</v>
+        <v>18.9608592987061</v>
       </c>
       <c r="Z7">
-        <v>18.8853206634521</v>
+        <v>21.0581092834473</v>
       </c>
       <c r="AA7">
-        <v>18.9608592987061</v>
+        <v>21.072509765625</v>
       </c>
       <c r="AB7">
-        <v>21.0581092834473</v>
+        <v>20.9983196258545</v>
       </c>
       <c r="AC7">
-        <v>21.072509765625</v>
+        <v>21.5178909301758</v>
       </c>
       <c r="AD7">
-        <v>20.9983196258545</v>
+        <v>22.543420791626</v>
       </c>
       <c r="AE7">
-        <v>21.5178909301758</v>
+        <v>23.3134994506836</v>
       </c>
       <c r="AF7">
-        <v>22.543420791626</v>
+        <v>24.4003391265869</v>
       </c>
       <c r="AG7">
-        <v>23.3134994506836</v>
+        <v>26.4823894500732</v>
       </c>
       <c r="AH7">
-        <v>24.4003391265869</v>
+        <v>29.182149887085</v>
       </c>
       <c r="AI7">
-        <v>26.4823894500732</v>
+        <v>33.2307014465332</v>
       </c>
       <c r="AJ7">
-        <v>29.182149887085</v>
+        <v>37.9856185913086</v>
       </c>
       <c r="AK7">
-        <v>33.2307014465332</v>
+        <v>42.8153114318848</v>
       </c>
       <c r="AL7">
-        <v>37.9856185913086</v>
+        <v>48.2575912475586</v>
       </c>
       <c r="AM7">
-        <v>42.8153114318848</v>
+        <v>50.0843315124512</v>
       </c>
       <c r="AN7">
-        <v>48.2575912475586</v>
+        <v>53.2880706787109</v>
       </c>
       <c r="AO7">
-        <v>50.0843315124512</v>
+        <v>55.5441818237305</v>
       </c>
       <c r="AP7">
-        <v>53.2880706787109</v>
+        <v>60.1124305725098</v>
       </c>
       <c r="AQ7">
-        <v>55.5441818237305</v>
+        <v>58.4740409851074</v>
       </c>
       <c r="AR7">
-        <v>60.1124305725098</v>
+        <v>59.2684707641602</v>
       </c>
       <c r="AS7">
-        <v>58.4740409851074</v>
+        <v>62.568431854248</v>
       </c>
       <c r="AT7">
-        <v>59.2684707641602</v>
+        <v>62.0685615539551</v>
       </c>
       <c r="AU7">
-        <v>62.568431854248</v>
+        <v>59.3514518737793</v>
       </c>
       <c r="AV7">
-        <v>62.0685615539551</v>
+        <v>58.9660987854004</v>
       </c>
       <c r="AW7">
-        <v>59.3514518737793</v>
+        <v>59.0324401855469</v>
       </c>
       <c r="AX7">
-        <v>58.9660987854004</v>
+        <v>58.4945106506348</v>
       </c>
       <c r="AY7">
-        <v>59.0324401855469</v>
+        <v>56.6439094543457</v>
       </c>
       <c r="AZ7">
-        <v>58.4945106506348</v>
+        <v>57.9005317687988</v>
       </c>
       <c r="BA7">
-        <v>56.6439094543457</v>
+        <v>58.9233512878418</v>
       </c>
       <c r="BB7">
-        <v>57.9005317687988</v>
+        <v>59.1459312438965</v>
       </c>
       <c r="BC7">
-        <v>58.9233512878418</v>
+        <v>59.4021186828613</v>
       </c>
       <c r="BD7">
-        <v>59.1459312438965</v>
+        <v>57.038761138916</v>
       </c>
       <c r="BE7">
-        <v>59.4021186828613</v>
+        <v>56.5644989013672</v>
       </c>
       <c r="BF7">
-        <v>57.038761138916</v>
+        <v>56.4584884643555</v>
       </c>
       <c r="BG7">
-        <v>56.5644989013672</v>
+        <v>58.4256210327148</v>
       </c>
       <c r="BH7">
-        <v>56.4584884643555</v>
+        <v>59.9955711364746</v>
       </c>
       <c r="BI7">
-        <v>58.4256210327148</v>
-      </c>
-      <c r="BJ7">
-        <v>59.9955711364746</v>
-      </c>
-      <c r="BK7">
         <v>61.3828887939453</v>
       </c>
     </row>
-    <row r="8" spans="1:61">
+    <row r="8" hidden="1" spans="1:59">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8"/>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="D8"/>
+      <c r="AO8">
+        <v>27.90508</v>
+      </c>
+      <c r="AP8">
+        <v>22.71169</v>
+      </c>
       <c r="AQ8">
-        <v>27.90508</v>
+        <v>20.67319</v>
       </c>
       <c r="AR8">
-        <v>22.71169</v>
+        <v>20.34455</v>
       </c>
       <c r="AS8">
-        <v>20.67319</v>
+        <v>25.48431</v>
       </c>
       <c r="AT8">
-        <v>20.34455</v>
+        <v>24.79769</v>
       </c>
       <c r="AU8">
-        <v>25.48431</v>
+        <v>24.37405</v>
       </c>
       <c r="AV8">
-        <v>24.79769</v>
+        <v>29.03337</v>
       </c>
       <c r="AW8">
-        <v>24.37405</v>
+        <v>26.05054</v>
       </c>
       <c r="AX8">
-        <v>29.03337</v>
+        <v>22.14017</v>
       </c>
       <c r="AY8">
-        <v>26.05054</v>
+        <v>20.34569</v>
       </c>
       <c r="AZ8">
-        <v>22.14017</v>
+        <v>18.77949</v>
       </c>
       <c r="BA8">
-        <v>20.34569</v>
+        <v>23.64564</v>
       </c>
       <c r="BB8">
-        <v>18.77949</v>
-      </c>
-      <c r="BC8">
-        <v>23.64564</v>
+        <v>31.421</v>
       </c>
       <c r="BD8">
-        <v>31.421</v>
+        <v>40.20748</v>
+      </c>
+      <c r="BE8">
+        <v>41.20273</v>
       </c>
       <c r="BF8">
-        <v>40.20748</v>
+        <v>35.35066</v>
       </c>
       <c r="BG8">
-        <v>41.20273</v>
-      </c>
-      <c r="BH8">
-        <v>35.35066</v>
-      </c>
-      <c r="BI8">
         <v>37.99046</v>
       </c>
     </row>
-    <row r="9" spans="1:61">
+    <row r="9" spans="1:59">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9"/>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="D9"/>
+      <c r="N9">
+        <v>23.75912</v>
+      </c>
+      <c r="O9">
+        <v>25.06369</v>
+      </c>
       <c r="P9">
-        <v>23.75912</v>
+        <v>24.46063</v>
       </c>
       <c r="Q9">
-        <v>25.06369</v>
+        <v>23.22398</v>
       </c>
       <c r="R9">
-        <v>24.46063</v>
+        <v>21.76194</v>
       </c>
       <c r="S9">
-        <v>23.22398</v>
+        <v>20.74074</v>
       </c>
       <c r="T9">
-        <v>21.76194</v>
-      </c>
-      <c r="U9">
-        <v>20.74074</v>
-      </c>
-      <c r="V9">
         <v>21.51866</v>
       </c>
+      <c r="W9">
+        <v>22.42626</v>
+      </c>
+      <c r="X9">
+        <v>23.02427</v>
+      </c>
       <c r="Y9">
-        <v>22.42626</v>
+        <v>22.81192</v>
       </c>
       <c r="Z9">
-        <v>23.02427</v>
+        <v>22.69803</v>
       </c>
       <c r="AA9">
-        <v>22.81192</v>
+        <v>21.91608</v>
       </c>
       <c r="AB9">
-        <v>22.69803</v>
+        <v>22.58611</v>
       </c>
       <c r="AC9">
-        <v>21.91608</v>
+        <v>21.0873</v>
       </c>
       <c r="AD9">
-        <v>22.58611</v>
+        <v>20.7827</v>
       </c>
       <c r="AE9">
-        <v>21.0873</v>
+        <v>20.16751</v>
       </c>
       <c r="AF9">
-        <v>20.7827</v>
+        <v>20.07865</v>
       </c>
       <c r="AG9">
-        <v>20.16751</v>
+        <v>20.44396</v>
       </c>
       <c r="AH9">
-        <v>20.07865</v>
+        <v>20.68082</v>
       </c>
       <c r="AI9">
-        <v>20.44396</v>
-      </c>
-      <c r="AJ9">
-        <v>20.68082</v>
+        <v>21.79378</v>
       </c>
       <c r="AK9">
-        <v>21.79378</v>
+        <v>23.02001</v>
+      </c>
+      <c r="AL9">
+        <v>23.62598</v>
       </c>
       <c r="AM9">
-        <v>23.02001</v>
-      </c>
-      <c r="AN9">
-        <v>23.62598</v>
+        <v>23.73445</v>
       </c>
       <c r="AO9">
-        <v>23.73445</v>
+        <v>21.94441</v>
+      </c>
+      <c r="AP9">
+        <v>20.11308</v>
       </c>
       <c r="AQ9">
-        <v>21.94441</v>
+        <v>17.54055</v>
       </c>
       <c r="AR9">
-        <v>20.11308</v>
+        <v>17.23762</v>
       </c>
       <c r="AS9">
-        <v>17.54055</v>
+        <v>20.63792</v>
       </c>
       <c r="AT9">
-        <v>17.23762</v>
+        <v>19.76077</v>
       </c>
       <c r="AU9">
-        <v>20.63792</v>
+        <v>19.29337</v>
       </c>
       <c r="AV9">
-        <v>19.76077</v>
+        <v>22.29214</v>
       </c>
       <c r="AW9">
-        <v>19.29337</v>
+        <v>20.10144</v>
       </c>
       <c r="AX9">
-        <v>22.29214</v>
+        <v>17.38604</v>
       </c>
       <c r="AY9">
-        <v>20.10144</v>
+        <v>15.70931</v>
       </c>
       <c r="AZ9">
-        <v>17.38604</v>
+        <v>14.36972</v>
       </c>
       <c r="BA9">
-        <v>15.70931</v>
+        <v>16.39469</v>
       </c>
       <c r="BB9">
-        <v>14.36972</v>
-      </c>
-      <c r="BC9">
-        <v>16.39469</v>
+        <v>22.09704</v>
       </c>
       <c r="BD9">
-        <v>22.09704</v>
+        <v>23.9586</v>
+      </c>
+      <c r="BE9">
+        <v>24.32627</v>
       </c>
       <c r="BF9">
-        <v>23.9586</v>
+        <v>22.82077</v>
       </c>
       <c r="BG9">
-        <v>24.32627</v>
-      </c>
-      <c r="BH9">
-        <v>22.82077</v>
-      </c>
-      <c r="BI9">
         <v>25.61589</v>
       </c>
     </row>
-    <row r="10" ht="15.15" spans="1:62">
+    <row r="10" hidden="1" spans="1:60">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10"/>
-      <c r="C10" t="s">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="D10"/>
-      <c r="P10">
+      <c r="N10">
         <v>7.9289698600769</v>
       </c>
+      <c r="AZ10">
+        <v>31.4906005859375</v>
+      </c>
+      <c r="BA10">
+        <v>33.7010917663574</v>
+      </c>
       <c r="BB10">
-        <v>31.4906005859375</v>
+        <v>33.0590400695801</v>
       </c>
       <c r="BC10">
-        <v>33.7010917663574</v>
+        <v>36.9503593444824</v>
       </c>
       <c r="BD10">
-        <v>33.0590400695801</v>
+        <v>37.8567390441895</v>
       </c>
       <c r="BE10">
-        <v>36.9503593444824</v>
-      </c>
-      <c r="BF10">
-        <v>37.8567390441895</v>
-      </c>
-      <c r="BG10">
         <v>38.9803009033203</v>
       </c>
-      <c r="BJ10">
+      <c r="BH10">
         <v>44.0941696166992</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:59">
+    <row r="11" hidden="1" spans="1:57">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11"/>
-      <c r="C11" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="D11"/>
+      <c r="N11" s="3">
+        <v>1103.7527</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1128.2119</v>
+      </c>
       <c r="P11" s="3">
-        <v>1103.7527</v>
+        <v>1137.9067</v>
       </c>
       <c r="Q11" s="3">
-        <v>1128.2119</v>
+        <v>1163.7102</v>
       </c>
       <c r="R11" s="3">
-        <v>1137.9067</v>
+        <v>1283.749</v>
       </c>
       <c r="S11" s="3">
-        <v>1163.7102</v>
+        <v>1337.7743</v>
       </c>
       <c r="T11" s="3">
-        <v>1283.749</v>
+        <v>1369.9569</v>
       </c>
       <c r="U11" s="3">
-        <v>1337.7743</v>
+        <v>1388.7611</v>
       </c>
       <c r="V11" s="3">
-        <v>1369.9569</v>
+        <v>1431.7643</v>
       </c>
       <c r="W11" s="3">
-        <v>1388.7611</v>
+        <v>1454.9598</v>
       </c>
       <c r="X11" s="3">
-        <v>1431.7643</v>
+        <v>1513.8896</v>
       </c>
       <c r="Y11" s="3">
-        <v>1454.9598</v>
+        <v>1572.5469</v>
       </c>
       <c r="Z11" s="3">
-        <v>1513.8896</v>
+        <v>1796.922</v>
       </c>
       <c r="AA11" s="3">
-        <v>1572.5469</v>
+        <v>1832.3683</v>
       </c>
       <c r="AB11" s="3">
-        <v>1796.922</v>
+        <v>1842.9849</v>
       </c>
       <c r="AC11" s="3">
-        <v>1832.3683</v>
+        <v>1889.1196</v>
       </c>
       <c r="AD11" s="3">
-        <v>1842.9849</v>
+        <v>1952.8007</v>
       </c>
       <c r="AE11" s="3">
-        <v>1889.1196</v>
+        <v>1981.8893</v>
       </c>
       <c r="AF11" s="3">
-        <v>1952.8007</v>
+        <v>2027.3235</v>
       </c>
       <c r="AG11" s="3">
-        <v>1981.8893</v>
+        <v>2062.3176</v>
       </c>
       <c r="AH11" s="3">
-        <v>2027.3235</v>
+        <v>2197.1479</v>
       </c>
       <c r="AI11" s="3">
-        <v>2062.3176</v>
+        <v>2412.1992</v>
       </c>
       <c r="AJ11" s="3">
-        <v>2197.1479</v>
+        <v>2654.5605</v>
       </c>
       <c r="AK11" s="3">
-        <v>2412.1992</v>
+        <v>2882.094</v>
       </c>
       <c r="AL11" s="3">
-        <v>2654.5605</v>
+        <v>3131.5393</v>
       </c>
       <c r="AM11" s="3">
-        <v>2882.094</v>
+        <v>3135.1072</v>
       </c>
       <c r="AN11" s="3">
-        <v>3131.5393</v>
+        <v>3246.3521</v>
       </c>
       <c r="AO11" s="3">
-        <v>3135.1072</v>
+        <v>3315.9817</v>
       </c>
       <c r="AP11" s="3">
-        <v>3246.3521</v>
+        <v>3547.6274</v>
       </c>
       <c r="AQ11" s="3">
-        <v>3315.9817</v>
+        <v>3438.4934</v>
       </c>
       <c r="AR11" s="3">
-        <v>3547.6274</v>
+        <v>3499.2236</v>
       </c>
       <c r="AS11" s="3">
-        <v>3438.4934</v>
+        <v>3778.4709</v>
       </c>
       <c r="AT11" s="3">
-        <v>3499.2236</v>
+        <v>3841.9709</v>
       </c>
       <c r="AU11" s="3">
-        <v>3778.4709</v>
+        <v>3755.3596</v>
       </c>
       <c r="AV11" s="3">
-        <v>3841.9709</v>
+        <v>3799.27</v>
       </c>
       <c r="AW11" s="3">
-        <v>3755.3596</v>
+        <v>3851.8635</v>
       </c>
       <c r="AX11" s="3">
-        <v>3799.27</v>
+        <v>3863.8506</v>
       </c>
       <c r="AY11" s="3">
-        <v>3851.8635</v>
+        <v>3776.1523</v>
       </c>
       <c r="AZ11" s="3">
-        <v>3863.8506</v>
+        <v>3881.6729</v>
       </c>
       <c r="BA11" s="3">
-        <v>3776.1523</v>
+        <v>3953.0103</v>
       </c>
       <c r="BB11" s="3">
-        <v>3881.6729</v>
+        <v>3945.6755</v>
       </c>
       <c r="BC11" s="3">
-        <v>3953.0103</v>
+        <v>3925.8</v>
       </c>
       <c r="BD11" s="3">
-        <v>3945.6755</v>
+        <v>3731.0212</v>
       </c>
       <c r="BE11" s="3">
-        <v>3925.8</v>
-      </c>
-      <c r="BF11" s="3">
-        <v>3731.0212</v>
-      </c>
-      <c r="BG11" s="3">
         <v>3657.5212</v>
       </c>
     </row>
-    <row r="13" spans="1:63">
+    <row r="12" hidden="1"/>
+    <row r="13" hidden="1" spans="1:61">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13"/>
-      <c r="C13" t="s">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="D13"/>
+      <c r="N13">
+        <v>47.3160209655762</v>
+      </c>
+      <c r="O13">
+        <v>48.1896514892578</v>
+      </c>
       <c r="P13">
-        <v>47.3160209655762</v>
+        <v>48.6753616333008</v>
       </c>
       <c r="Q13">
-        <v>48.1896514892578</v>
+        <v>49.049690246582</v>
       </c>
       <c r="R13">
-        <v>48.6753616333008</v>
+        <v>51.0904312133789</v>
       </c>
       <c r="S13">
-        <v>49.049690246582</v>
+        <v>54.7660217285156</v>
       </c>
       <c r="T13">
-        <v>51.0904312133789</v>
+        <v>52.9422607421875</v>
       </c>
       <c r="U13">
-        <v>54.7660217285156</v>
+        <v>53.4084510803223</v>
       </c>
       <c r="V13">
-        <v>52.9422607421875</v>
+        <v>52.6435317993164</v>
       </c>
       <c r="W13">
-        <v>53.4084510803223</v>
+        <v>53.6192016601563</v>
       </c>
       <c r="X13">
-        <v>52.6435317993164</v>
+        <v>55.7370300292969</v>
       </c>
       <c r="Y13">
-        <v>53.6192016601563</v>
+        <v>57.0089416503906</v>
       </c>
       <c r="Z13">
-        <v>55.7370300292969</v>
+        <v>57.5830307006836</v>
       </c>
       <c r="AA13">
-        <v>57.0089416503906</v>
+        <v>58.4033813476563</v>
       </c>
       <c r="AB13">
-        <v>57.5830307006836</v>
+        <v>58.259708404541</v>
       </c>
       <c r="AC13">
-        <v>58.4033813476563</v>
+        <v>59.4338684082031</v>
       </c>
       <c r="AD13">
-        <v>58.259708404541</v>
+        <v>62.0951614379883</v>
       </c>
       <c r="AE13">
-        <v>59.4338684082031</v>
+        <v>64.8080825805664</v>
       </c>
       <c r="AF13">
-        <v>62.0951614379883</v>
+        <v>67.5728225708008</v>
       </c>
       <c r="AG13">
-        <v>64.8080825805664</v>
+        <v>71.251220703125</v>
       </c>
       <c r="AH13">
-        <v>67.5728225708008</v>
+        <v>73.1438980102539</v>
       </c>
       <c r="AI13">
-        <v>71.251220703125</v>
+        <v>77.7397384643555</v>
       </c>
       <c r="AJ13">
-        <v>73.1438980102539</v>
+        <v>79.3760223388672</v>
       </c>
       <c r="AK13">
-        <v>77.7397384643555</v>
+        <v>79.0566635131836</v>
       </c>
       <c r="AL13">
-        <v>79.3760223388672</v>
+        <v>79.1659774780273</v>
       </c>
       <c r="AM13">
-        <v>79.0566635131836</v>
-      </c>
-      <c r="AN13">
-        <v>79.1659774780273</v>
+        <v>78.7965087890625</v>
       </c>
       <c r="AO13">
-        <v>78.7965087890625</v>
+        <v>71.8154830932617</v>
+      </c>
+      <c r="AP13">
+        <v>72.7102279663086</v>
       </c>
       <c r="AQ13">
-        <v>71.8154830932617</v>
+        <v>67.8024291992188</v>
       </c>
       <c r="AR13">
-        <v>72.7102279663086</v>
+        <v>68.0972900390625</v>
       </c>
       <c r="AS13">
-        <v>67.8024291992188</v>
+        <v>77.9075927734375</v>
       </c>
       <c r="AT13">
-        <v>68.0972900390625</v>
+        <v>80.1558990478516</v>
       </c>
       <c r="AU13">
-        <v>77.9075927734375</v>
+        <v>81.1555709838867</v>
       </c>
       <c r="AV13">
-        <v>80.1558990478516</v>
+        <v>80.6348266601563</v>
       </c>
       <c r="AW13">
-        <v>81.1555709838867</v>
+        <v>83.0776977539063</v>
       </c>
       <c r="AX13">
-        <v>80.6348266601563</v>
+        <v>83.7085494995117</v>
       </c>
       <c r="AY13">
-        <v>83.0776977539063</v>
+        <v>85.0100479125977</v>
       </c>
       <c r="AZ13">
-        <v>83.7085494995117</v>
+        <v>87.6219863891602</v>
       </c>
       <c r="BA13">
-        <v>85.0100479125977</v>
+        <v>92.6219482421875</v>
       </c>
       <c r="BB13">
-        <v>87.6219863891602</v>
+        <v>93.9065780639648</v>
       </c>
       <c r="BC13">
-        <v>92.6219482421875</v>
+        <v>93.1754913330078</v>
       </c>
       <c r="BD13">
-        <v>93.9065780639648</v>
+        <v>88.7264175415039</v>
       </c>
       <c r="BE13">
-        <v>93.1754913330078</v>
+        <v>88.6268692016602</v>
       </c>
       <c r="BF13">
-        <v>88.7264175415039</v>
+        <v>88.8894119262695</v>
       </c>
       <c r="BG13">
-        <v>88.6268692016602</v>
+        <v>88.8350524902344</v>
       </c>
       <c r="BH13">
-        <v>88.8894119262695</v>
+        <v>88.1673889160156</v>
       </c>
       <c r="BI13">
-        <v>88.8350524902344</v>
-      </c>
-      <c r="BJ13">
-        <v>88.1673889160156</v>
-      </c>
-      <c r="BK13">
         <v>88.2991790771484</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
+    <row r="14" hidden="1" spans="1:59">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14"/>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="D14"/>
+      <c r="BA14">
+        <v>20.83643</v>
+      </c>
+      <c r="BB14">
+        <v>20.04063</v>
+      </c>
       <c r="BC14">
-        <v>20.83643</v>
+        <v>21.89296</v>
       </c>
       <c r="BD14">
-        <v>20.04063</v>
+        <v>20.41236</v>
       </c>
       <c r="BE14">
-        <v>21.89296</v>
+        <v>21.16585</v>
       </c>
       <c r="BF14">
-        <v>20.41236</v>
+        <v>21.52057</v>
       </c>
       <c r="BG14">
-        <v>21.16585</v>
-      </c>
-      <c r="BH14">
-        <v>21.52057</v>
-      </c>
-      <c r="BI14">
         <v>19.42953</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:57">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15"/>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="D15"/>
-      <c r="BF15">
+      <c r="BD15">
         <v>27.22716</v>
       </c>
-      <c r="BG15">
+      <c r="BE15">
         <v>27.50228</v>
       </c>
     </row>
-    <row r="16" ht="15.15" spans="1:63">
+    <row r="16" hidden="1" spans="1:61">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16"/>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="D16"/>
-      <c r="AI16">
+      <c r="AG16">
         <v>45.2398109436035</v>
       </c>
+      <c r="AU16">
+        <v>36.1269989013672</v>
+      </c>
+      <c r="AV16">
+        <v>36.2299385070801</v>
+      </c>
       <c r="AW16">
-        <v>36.1269989013672</v>
-      </c>
-      <c r="AX16">
-        <v>36.2299385070801</v>
+        <v>37.3678512573242</v>
       </c>
       <c r="AY16">
-        <v>37.3678512573242</v>
+        <v>38.2589111328125</v>
+      </c>
+      <c r="AZ16">
+        <v>38.6207695007324</v>
       </c>
       <c r="BA16">
-        <v>38.2589111328125</v>
+        <v>39.1374206542969</v>
       </c>
       <c r="BB16">
-        <v>38.6207695007324</v>
+        <v>39.944938659668</v>
       </c>
       <c r="BC16">
-        <v>39.1374206542969</v>
+        <v>40.6632308959961</v>
       </c>
       <c r="BD16">
-        <v>39.944938659668</v>
+        <v>41.5046691894531</v>
       </c>
       <c r="BE16">
-        <v>40.6632308959961</v>
+        <v>41.8897018432617</v>
       </c>
       <c r="BF16">
-        <v>41.5046691894531</v>
+        <v>42.3375091552734</v>
       </c>
       <c r="BG16">
-        <v>41.8897018432617</v>
-      </c>
-      <c r="BH16">
-        <v>42.3375091552734</v>
+        <v>43.5118789672852</v>
       </c>
       <c r="BI16">
-        <v>43.5118789672852</v>
-      </c>
-      <c r="BK16">
         <v>45.167911529541</v>
       </c>
     </row>
-    <row r="17" ht="15.15" spans="1:59">
+    <row r="17" hidden="1" spans="1:57">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17"/>
-      <c r="C17" t="s">
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="D17"/>
+      <c r="N17" s="3">
+        <v>4099.0005</v>
+      </c>
+      <c r="O17" s="3">
+        <v>4281.7837</v>
+      </c>
       <c r="P17" s="3">
-        <v>4099.0005</v>
+        <v>4412.7275</v>
       </c>
       <c r="Q17" s="3">
-        <v>4281.7837</v>
+        <v>4519.1104</v>
       </c>
       <c r="R17" s="3">
-        <v>4412.7275</v>
+        <v>4769.9463</v>
       </c>
       <c r="S17" s="3">
-        <v>4519.1104</v>
+        <v>5174.7871</v>
       </c>
       <c r="T17" s="3">
-        <v>4769.9463</v>
+        <v>5049.8774</v>
       </c>
       <c r="U17" s="3">
-        <v>5174.7871</v>
+        <v>5127.2949</v>
       </c>
       <c r="V17" s="3">
-        <v>5049.8774</v>
+        <v>5066.5693</v>
       </c>
       <c r="W17" s="3">
-        <v>5127.2949</v>
+        <v>5155.5913</v>
       </c>
       <c r="X17" s="3">
-        <v>5066.5693</v>
+        <v>5343.6353</v>
       </c>
       <c r="Y17" s="3">
-        <v>5155.5913</v>
+        <v>5417.1226</v>
       </c>
       <c r="Z17" s="3">
-        <v>5343.6353</v>
+        <v>5392.4355</v>
       </c>
       <c r="AA17" s="3">
-        <v>5417.1226</v>
+        <v>5360.3164</v>
       </c>
       <c r="AB17" s="3">
-        <v>5392.4355</v>
+        <v>5215.9106</v>
       </c>
       <c r="AC17" s="3">
-        <v>5360.3164</v>
+        <v>5172.5488</v>
       </c>
       <c r="AD17" s="3">
-        <v>5215.9106</v>
+        <v>5233.6875</v>
       </c>
       <c r="AE17" s="3">
-        <v>5172.5488</v>
+        <v>5294.4961</v>
       </c>
       <c r="AF17" s="3">
-        <v>5233.6875</v>
+        <v>5363.3169</v>
       </c>
       <c r="AG17" s="3">
-        <v>5294.4961</v>
+        <v>5354.209</v>
       </c>
       <c r="AH17" s="3">
-        <v>5363.3169</v>
+        <v>5368.7993</v>
       </c>
       <c r="AI17" s="3">
-        <v>5354.209</v>
+        <v>5568.2466</v>
       </c>
       <c r="AJ17" s="3">
-        <v>5368.7993</v>
+        <v>5560.376</v>
       </c>
       <c r="AK17" s="3">
-        <v>5568.2466</v>
+        <v>5433.0728</v>
       </c>
       <c r="AL17" s="3">
-        <v>5560.376</v>
+        <v>5362.415</v>
       </c>
       <c r="AM17" s="3">
-        <v>5433.0728</v>
-      </c>
-      <c r="AN17" s="3">
-        <v>5362.415</v>
-      </c>
+        <v>5292.2695</v>
+      </c>
+      <c r="AN17" s="6"/>
       <c r="AO17" s="3">
-        <v>5292.2695</v>
-      </c>
-      <c r="AP17" s="6"/>
+        <v>4806.877</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>4922.3618</v>
+      </c>
       <c r="AQ17" s="3">
-        <v>4806.877</v>
+        <v>4667.0479</v>
       </c>
       <c r="AR17" s="3">
-        <v>4922.3618</v>
+        <v>4757.0894</v>
       </c>
       <c r="AS17" s="3">
-        <v>4667.0479</v>
+        <v>5521.5239</v>
       </c>
       <c r="AT17" s="3">
-        <v>4757.0894</v>
+        <v>5708.3843</v>
       </c>
       <c r="AU17" s="3">
-        <v>5521.5239</v>
+        <v>5757.6465</v>
       </c>
       <c r="AV17" s="3">
-        <v>5708.3843</v>
+        <v>5832.3984</v>
       </c>
       <c r="AW17" s="3">
-        <v>5757.6465</v>
+        <v>5851.3833</v>
       </c>
       <c r="AX17" s="3">
-        <v>5832.3984</v>
+        <v>5887.1274</v>
       </c>
       <c r="AY17" s="3">
-        <v>5851.3833</v>
+        <v>5993.3442</v>
       </c>
       <c r="AZ17" s="3">
-        <v>5887.1274</v>
+        <v>6217.7168</v>
       </c>
       <c r="BA17" s="3">
-        <v>5993.3442</v>
+        <v>6592.2168</v>
       </c>
       <c r="BB17" s="3">
-        <v>6217.7168</v>
+        <v>6727.5205</v>
       </c>
       <c r="BC17" s="3">
-        <v>6592.2168</v>
+        <v>6669.0435</v>
       </c>
       <c r="BD17" s="3">
-        <v>6727.5205</v>
+        <v>6297.812</v>
       </c>
       <c r="BE17" s="3">
-        <v>6669.0435</v>
-      </c>
-      <c r="BF17" s="3">
-        <v>6297.812</v>
-      </c>
-      <c r="BG17" s="3">
         <v>6166.9448</v>
       </c>
     </row>
-    <row r="19" spans="1:64">
+    <row r="18" hidden="1"/>
+    <row r="19" hidden="1" spans="1:62">
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19"/>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="D19"/>
+      <c r="N19">
+        <v>4.92460012435913</v>
+      </c>
       <c r="P19">
-        <v>4.92460012435913</v>
-      </c>
-      <c r="R19">
         <v>4.98321008682251</v>
       </c>
+      <c r="S19">
+        <v>4.96716022491455</v>
+      </c>
+      <c r="T19">
+        <v>4.83135986328125</v>
+      </c>
       <c r="U19">
-        <v>4.96716022491455</v>
+        <v>4.9843602180481</v>
       </c>
       <c r="V19">
-        <v>4.83135986328125</v>
+        <v>4.95850992202759</v>
       </c>
       <c r="W19">
-        <v>4.9843602180481</v>
+        <v>4.96351003646851</v>
       </c>
       <c r="X19">
-        <v>4.95850992202759</v>
+        <v>5.24741983413696</v>
       </c>
       <c r="Y19">
-        <v>4.96351003646851</v>
+        <v>4.9403600692749</v>
       </c>
       <c r="Z19">
-        <v>5.24741983413696</v>
+        <v>5.55459022521973</v>
       </c>
       <c r="AA19">
-        <v>4.9403600692749</v>
+        <v>5.85675001144409</v>
       </c>
       <c r="AB19">
-        <v>5.55459022521973</v>
+        <v>5.82862997055054</v>
       </c>
       <c r="AC19">
-        <v>5.85675001144409</v>
+        <v>5.98726987838745</v>
       </c>
       <c r="AD19">
-        <v>5.82862997055054</v>
+        <v>6.33130979537964</v>
       </c>
       <c r="AE19">
-        <v>5.98726987838745</v>
+        <v>5.53362989425659</v>
       </c>
       <c r="AF19">
-        <v>6.33130979537964</v>
+        <v>5.74981021881104</v>
       </c>
       <c r="AG19">
-        <v>5.53362989425659</v>
+        <v>5.94715023040771</v>
       </c>
       <c r="AH19">
-        <v>5.74981021881104</v>
-      </c>
-      <c r="AI19">
-        <v>5.94715023040771</v>
-      </c>
-      <c r="AJ19">
         <v>6.02975988388062</v>
       </c>
+      <c r="AL19">
+        <v>5.53655004501343</v>
+      </c>
+      <c r="AM19">
+        <v>6.26905012130737</v>
+      </c>
       <c r="AN19">
-        <v>5.53655004501343</v>
-      </c>
-      <c r="AO19">
-        <v>6.26905012130737</v>
-      </c>
-      <c r="AP19">
         <v>6.5457501411438</v>
       </c>
+      <c r="AQ19">
+        <v>9.50872039794922</v>
+      </c>
+      <c r="AR19">
+        <v>9.69449996948242</v>
+      </c>
       <c r="AS19">
-        <v>9.50872039794922</v>
+        <v>10.176420211792</v>
       </c>
       <c r="AT19">
-        <v>9.69449996948242</v>
+        <v>10.6253700256348</v>
       </c>
       <c r="AU19">
-        <v>10.176420211792</v>
+        <v>10.9332103729248</v>
       </c>
       <c r="AV19">
-        <v>10.6253700256348</v>
+        <v>10.6796398162842</v>
       </c>
       <c r="AW19">
-        <v>10.9332103729248</v>
+        <v>11.4863595962524</v>
       </c>
       <c r="AX19">
-        <v>10.6796398162842</v>
+        <v>13.1266803741455</v>
       </c>
       <c r="AY19">
-        <v>11.4863595962524</v>
+        <v>15.0472097396851</v>
       </c>
       <c r="AZ19">
-        <v>13.1266803741455</v>
+        <v>16.0309295654297</v>
       </c>
       <c r="BA19">
-        <v>15.0472097396851</v>
+        <v>17.8338794708252</v>
       </c>
       <c r="BB19">
-        <v>16.0309295654297</v>
+        <v>22.7646503448486</v>
       </c>
       <c r="BC19">
-        <v>17.8338794708252</v>
+        <v>24.2679805755615</v>
       </c>
       <c r="BD19">
-        <v>22.7646503448486</v>
+        <v>23.7948303222656</v>
       </c>
       <c r="BE19">
-        <v>24.2679805755615</v>
+        <v>25.4321308135986</v>
       </c>
       <c r="BF19">
-        <v>23.7948303222656</v>
+        <v>26.7689895629883</v>
       </c>
       <c r="BG19">
-        <v>25.4321308135986</v>
+        <v>26.8292198181152</v>
       </c>
       <c r="BH19">
-        <v>26.7689895629883</v>
+        <v>27.4421291351318</v>
       </c>
       <c r="BI19">
-        <v>26.8292198181152</v>
+        <v>28.0605506896973</v>
       </c>
       <c r="BJ19">
-        <v>27.4421291351318</v>
-      </c>
-      <c r="BK19">
-        <v>28.0605506896973</v>
-      </c>
-      <c r="BL19">
         <v>28.5729007720947</v>
       </c>
     </row>
-    <row r="20" spans="1:58">
+    <row r="20" hidden="1" spans="1:56">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20"/>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="D20"/>
-      <c r="AS20">
+      <c r="AQ20">
         <v>96.88233</v>
       </c>
+      <c r="AT20">
+        <v>70.25823</v>
+      </c>
+      <c r="AU20">
+        <v>62.91641</v>
+      </c>
       <c r="AV20">
-        <v>70.25823</v>
+        <v>59.80892</v>
       </c>
       <c r="AW20">
-        <v>62.91641</v>
-      </c>
-      <c r="AX20">
-        <v>59.80892</v>
-      </c>
-      <c r="AY20">
         <v>56.92187</v>
       </c>
+      <c r="AZ20">
+        <v>77.55281</v>
+      </c>
+      <c r="BA20">
+        <v>71.54343</v>
+      </c>
       <c r="BB20">
-        <v>77.55281</v>
+        <v>60.97288</v>
       </c>
       <c r="BC20">
-        <v>71.54343</v>
+        <v>54.44577</v>
       </c>
       <c r="BD20">
-        <v>60.97288</v>
-      </c>
-      <c r="BE20">
-        <v>54.44577</v>
-      </c>
-      <c r="BF20">
         <v>49.27271</v>
       </c>
     </row>
-    <row r="21" spans="1:58">
+    <row r="21" spans="1:56">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21"/>
-      <c r="C21" t="s">
+      <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="D21"/>
-      <c r="AR21">
+      <c r="AP21">
         <v>17.54497</v>
       </c>
-      <c r="AS21">
+      <c r="AQ21">
         <v>20.29511</v>
       </c>
+      <c r="AT21">
+        <v>20.08727</v>
+      </c>
+      <c r="AU21">
+        <v>20.01232</v>
+      </c>
       <c r="AV21">
-        <v>20.08727</v>
+        <v>19.55496</v>
       </c>
       <c r="AW21">
-        <v>20.01232</v>
-      </c>
-      <c r="AX21">
-        <v>19.55496</v>
-      </c>
-      <c r="AY21">
         <v>20.28408</v>
       </c>
+      <c r="AZ21">
+        <v>36.45114</v>
+      </c>
+      <c r="BA21">
+        <v>36.07652</v>
+      </c>
       <c r="BB21">
-        <v>36.45114</v>
+        <v>34.68074</v>
       </c>
       <c r="BC21">
-        <v>36.07652</v>
+        <v>32.1669</v>
       </c>
       <c r="BD21">
-        <v>34.68074</v>
-      </c>
-      <c r="BE21">
-        <v>32.1669</v>
-      </c>
-      <c r="BF21">
         <v>28.52687</v>
       </c>
     </row>
-    <row r="22" ht="15.15" spans="1:56">
+    <row r="22" hidden="1" spans="1:54">
       <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22"/>
-      <c r="C22" t="s">
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="D22"/>
-      <c r="BD22">
+      <c r="BB22">
         <v>9.89301013946533</v>
       </c>
     </row>
-    <row r="23" ht="15.15" spans="1:58">
+    <row r="23" hidden="1" spans="1:56">
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23"/>
-      <c r="C23" t="s">
+      <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="D23"/>
+      <c r="N23" s="4">
+        <v>437.9936</v>
+      </c>
+      <c r="O23" s="4"/>
       <c r="P23" s="4">
-        <v>437.9936</v>
+        <v>468.9547</v>
       </c>
       <c r="Q23" s="4"/>
-      <c r="R23" s="4">
-        <v>468.9547</v>
-      </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4">
+        <v>480.2204</v>
+      </c>
+      <c r="T23" s="4">
+        <v>464.5056</v>
+      </c>
       <c r="U23" s="4">
-        <v>480.2204</v>
+        <v>476.5883</v>
       </c>
       <c r="V23" s="4">
-        <v>464.5056</v>
+        <v>472.5791</v>
       </c>
       <c r="W23" s="4">
-        <v>476.5883</v>
+        <v>472.1248</v>
       </c>
       <c r="X23" s="4">
-        <v>472.5791</v>
+        <v>498.9064</v>
       </c>
       <c r="Y23" s="4">
-        <v>472.1248</v>
+        <v>469.0622</v>
       </c>
       <c r="Z23" s="4">
-        <v>498.9064</v>
+        <v>526.2446</v>
       </c>
       <c r="AA23" s="4">
-        <v>469.0622</v>
+        <v>553.0579</v>
       </c>
       <c r="AB23" s="4">
-        <v>526.2446</v>
+        <v>548.4509</v>
       </c>
       <c r="AC23" s="4">
-        <v>553.0579</v>
+        <v>561.5744</v>
       </c>
       <c r="AD23" s="4">
-        <v>548.4509</v>
+        <v>590.7708</v>
       </c>
       <c r="AE23" s="4">
-        <v>561.5744</v>
+        <v>514.479</v>
       </c>
       <c r="AF23" s="4">
-        <v>590.7708</v>
+        <v>533.5602</v>
       </c>
       <c r="AG23" s="4">
-        <v>514.479</v>
+        <v>549.0663</v>
       </c>
       <c r="AH23" s="4">
-        <v>533.5602</v>
-      </c>
-      <c r="AI23" s="4">
-        <v>549.0663</v>
-      </c>
-      <c r="AJ23" s="4">
         <v>557.2197</v>
       </c>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
+      <c r="AL23" s="4">
+        <v>513.3518</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>581.6232</v>
+      </c>
       <c r="AN23" s="4">
-        <v>513.3518</v>
-      </c>
-      <c r="AO23" s="4">
-        <v>581.6232</v>
-      </c>
-      <c r="AP23" s="4">
         <v>607.3676</v>
       </c>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4">
+        <v>892.7032</v>
+      </c>
+      <c r="AR23" s="4">
+        <v>917.4507</v>
+      </c>
       <c r="AS23" s="4">
-        <v>892.7032</v>
-      </c>
-      <c r="AT23" s="4">
-        <v>917.4507</v>
-      </c>
-      <c r="AU23" s="4">
         <v>970.1666</v>
       </c>
+      <c r="AT23" s="5">
+        <v>1019.0681</v>
+      </c>
+      <c r="AU23" s="5">
+        <v>1052.2667</v>
+      </c>
       <c r="AV23" s="5">
-        <v>1019.0681</v>
+        <v>1029.1904</v>
       </c>
       <c r="AW23" s="5">
-        <v>1052.2667</v>
+        <v>1105.9989</v>
       </c>
       <c r="AX23" s="5">
-        <v>1029.1904</v>
+        <v>1259.9087</v>
       </c>
       <c r="AY23" s="5">
-        <v>1105.9989</v>
+        <v>1437.7783</v>
       </c>
       <c r="AZ23" s="5">
-        <v>1259.9087</v>
+        <v>1523.686</v>
       </c>
       <c r="BA23" s="5">
-        <v>1437.7783</v>
+        <v>1684.8904</v>
       </c>
       <c r="BB23" s="5">
-        <v>1523.686</v>
+        <v>2136.4414</v>
       </c>
       <c r="BC23" s="5">
-        <v>1684.8904</v>
+        <v>2260.8928</v>
       </c>
       <c r="BD23" s="5">
-        <v>2136.4414</v>
-      </c>
-      <c r="BE23" s="5">
-        <v>2260.8928</v>
-      </c>
-      <c r="BF23" s="5">
         <v>2202.0444</v>
       </c>
     </row>
-    <row r="25" spans="1:63">
+    <row r="24" hidden="1"/>
+    <row r="25" hidden="1" spans="1:61">
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25"/>
-      <c r="C25" t="s">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="D25"/>
+      <c r="M25">
+        <v>15.8165502548218</v>
+      </c>
+      <c r="N25">
+        <v>17.0943508148193</v>
+      </c>
       <c r="O25">
-        <v>15.8165502548218</v>
+        <v>18.3830108642578</v>
       </c>
       <c r="P25">
-        <v>17.0943508148193</v>
+        <v>19.5901298522949</v>
       </c>
       <c r="Q25">
-        <v>18.3830108642578</v>
+        <v>21.8173503875732</v>
       </c>
       <c r="R25">
-        <v>19.5901298522949</v>
+        <v>23.2816009521484</v>
       </c>
       <c r="S25">
-        <v>21.8173503875732</v>
+        <v>24.0753002166748</v>
       </c>
       <c r="T25">
-        <v>23.2816009521484</v>
+        <v>24.4374294281006</v>
       </c>
       <c r="U25">
-        <v>24.0753002166748</v>
+        <v>24.7808399200439</v>
       </c>
       <c r="V25">
-        <v>24.4374294281006</v>
+        <v>25.0035190582275</v>
       </c>
       <c r="W25">
-        <v>24.7808399200439</v>
+        <v>25.1546897888184</v>
       </c>
       <c r="X25">
-        <v>25.0035190582275</v>
+        <v>25.5852298736572</v>
       </c>
       <c r="Y25">
-        <v>25.1546897888184</v>
+        <v>25.6408805847168</v>
       </c>
       <c r="Z25">
-        <v>25.5852298736572</v>
+        <v>26.3624591827393</v>
       </c>
       <c r="AA25">
-        <v>25.6408805847168</v>
+        <v>27.004810333252</v>
       </c>
       <c r="AB25">
-        <v>26.3624591827393</v>
+        <v>27.9107303619385</v>
       </c>
       <c r="AC25">
-        <v>27.004810333252</v>
+        <v>29.5150508880615</v>
       </c>
       <c r="AD25">
-        <v>27.9107303619385</v>
+        <v>29.6845893859863</v>
       </c>
       <c r="AE25">
-        <v>29.5150508880615</v>
+        <v>31.4995708465576</v>
       </c>
       <c r="AF25">
-        <v>29.6845893859863</v>
+        <v>32.6539611816406</v>
       </c>
       <c r="AG25">
-        <v>31.4995708465576</v>
+        <v>35.3595504760742</v>
       </c>
       <c r="AH25">
-        <v>32.6539611816406</v>
+        <v>38.3134689331055</v>
       </c>
       <c r="AI25">
-        <v>35.3595504760742</v>
+        <v>39.7008399963379</v>
       </c>
       <c r="AJ25">
-        <v>38.3134689331055</v>
+        <v>65.5642166137695</v>
       </c>
       <c r="AK25">
-        <v>39.7008399963379</v>
+        <v>66.9792175292969</v>
       </c>
       <c r="AL25">
-        <v>65.5642166137695</v>
+        <v>70.6885681152344</v>
       </c>
       <c r="AM25">
-        <v>66.9792175292969</v>
+        <v>75.6477813720703</v>
       </c>
       <c r="AN25">
-        <v>70.6885681152344</v>
-      </c>
-      <c r="AO25">
-        <v>75.6477813720703</v>
-      </c>
-      <c r="AP25">
         <v>80.9066467285156</v>
       </c>
+      <c r="BF25">
+        <v>118.610862731934</v>
+      </c>
+      <c r="BG25">
+        <v>120.965713500977</v>
+      </c>
       <c r="BH25">
-        <v>118.610862731934</v>
+        <v>113.142158508301</v>
       </c>
       <c r="BI25">
-        <v>120.965713500977</v>
-      </c>
-      <c r="BJ25">
-        <v>113.142158508301</v>
-      </c>
-      <c r="BK25">
         <v>107.808052062988</v>
       </c>
     </row>
-    <row r="26" spans="1:61">
+    <row r="26" hidden="1" spans="1:59">
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26"/>
-      <c r="C26" t="s">
+      <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="D26"/>
-      <c r="AN26">
+      <c r="AL26">
         <v>26.57506</v>
       </c>
+      <c r="BC26">
+        <v>19.06647</v>
+      </c>
+      <c r="BD26">
+        <v>22.28509</v>
+      </c>
       <c r="BE26">
-        <v>19.06647</v>
+        <v>21.85707</v>
       </c>
       <c r="BF26">
-        <v>22.28509</v>
+        <v>21.46599</v>
       </c>
       <c r="BG26">
-        <v>21.85707</v>
-      </c>
-      <c r="BH26">
-        <v>21.46599</v>
-      </c>
-      <c r="BI26">
         <v>17.82954</v>
       </c>
     </row>
-    <row r="27" spans="1:61">
+    <row r="27" spans="1:59">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27"/>
-      <c r="C27" t="s">
+      <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="D27"/>
+      <c r="U27">
+        <v>24.75316</v>
+      </c>
+      <c r="V27">
+        <v>24.03427</v>
+      </c>
       <c r="W27">
-        <v>24.75316</v>
-      </c>
-      <c r="X27">
-        <v>24.03427</v>
+        <v>23.17673</v>
       </c>
       <c r="Y27">
-        <v>23.17673</v>
-      </c>
-      <c r="AA27">
         <v>21.69845</v>
       </c>
+      <c r="Z27">
+        <v>31.67267</v>
+      </c>
       <c r="AB27">
-        <v>31.67267</v>
+        <v>31.57621</v>
+      </c>
+      <c r="AC27">
+        <v>32.29368</v>
       </c>
       <c r="AD27">
-        <v>31.57621</v>
+        <v>31.64317</v>
       </c>
       <c r="AE27">
-        <v>32.29368</v>
+        <v>33.46855</v>
       </c>
       <c r="AF27">
-        <v>31.64317</v>
+        <v>32.64205</v>
       </c>
       <c r="AG27">
-        <v>33.46855</v>
+        <v>33.42061</v>
       </c>
       <c r="AH27">
-        <v>32.64205</v>
+        <v>32.64821</v>
       </c>
       <c r="AI27">
-        <v>33.42061</v>
+        <v>31.8731</v>
       </c>
       <c r="AJ27">
-        <v>32.64821</v>
+        <v>26.58342</v>
       </c>
       <c r="AK27">
-        <v>31.8731</v>
+        <v>28.86819</v>
       </c>
       <c r="AL27">
-        <v>26.58342</v>
+        <v>27.58676</v>
       </c>
       <c r="AM27">
-        <v>28.86819</v>
-      </c>
-      <c r="AN27">
-        <v>27.58676</v>
-      </c>
-      <c r="AO27">
         <v>29.61601</v>
       </c>
-      <c r="AS27">
+      <c r="AQ27">
         <v>23.41993</v>
       </c>
+      <c r="AV27">
+        <v>22.19504</v>
+      </c>
+      <c r="AW27">
+        <v>21.98008</v>
+      </c>
       <c r="AX27">
-        <v>22.19504</v>
+        <v>22.50197</v>
       </c>
       <c r="AY27">
-        <v>21.98008</v>
+        <v>22.45879</v>
       </c>
       <c r="AZ27">
-        <v>22.50197</v>
+        <v>22.11265</v>
       </c>
       <c r="BA27">
-        <v>22.45879</v>
+        <v>22.27661</v>
       </c>
       <c r="BB27">
-        <v>22.11265</v>
+        <v>23.20185</v>
       </c>
       <c r="BC27">
-        <v>22.27661</v>
+        <v>23.67862</v>
       </c>
       <c r="BD27">
-        <v>23.20185</v>
+        <v>25.9484</v>
       </c>
       <c r="BE27">
-        <v>23.67862</v>
+        <v>26.53865</v>
       </c>
       <c r="BF27">
-        <v>25.9484</v>
+        <v>28.85535</v>
       </c>
       <c r="BG27">
-        <v>26.53865</v>
-      </c>
-      <c r="BH27">
-        <v>28.85535</v>
-      </c>
-      <c r="BI27">
         <v>26.82461</v>
       </c>
     </row>
-    <row r="28" ht="15.15" spans="1:63">
+    <row r="28" hidden="1" spans="1:61">
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28"/>
-      <c r="C28" t="s">
+      <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="D28"/>
+      <c r="AU28">
+        <v>30.8230991363525</v>
+      </c>
+      <c r="AV28">
+        <v>31.690990447998</v>
+      </c>
       <c r="AW28">
-        <v>30.8230991363525</v>
+        <v>33.0125503540039</v>
       </c>
       <c r="AX28">
-        <v>31.690990447998</v>
+        <v>33.7405891418457</v>
       </c>
       <c r="AY28">
-        <v>33.0125503540039</v>
+        <v>35.8187408447266</v>
       </c>
       <c r="AZ28">
-        <v>33.7405891418457</v>
+        <v>36.8034706115723</v>
       </c>
       <c r="BA28">
-        <v>35.8187408447266</v>
+        <v>37.4880905151367</v>
       </c>
       <c r="BB28">
-        <v>36.8034706115723</v>
+        <v>38.3591003417969</v>
       </c>
       <c r="BC28">
-        <v>37.4880905151367</v>
+        <v>41.2800216674805</v>
       </c>
       <c r="BD28">
-        <v>38.3591003417969</v>
+        <v>37.2055892944336</v>
       </c>
       <c r="BE28">
-        <v>41.2800216674805</v>
+        <v>34.6323204040527</v>
       </c>
       <c r="BF28">
-        <v>37.2055892944336</v>
+        <v>40.472038269043</v>
       </c>
       <c r="BG28">
-        <v>34.6323204040527</v>
+        <v>41.3899192810059</v>
       </c>
       <c r="BH28">
-        <v>40.472038269043</v>
+        <v>42.6143493652344</v>
       </c>
       <c r="BI28">
-        <v>41.3899192810059</v>
-      </c>
-      <c r="BJ28">
-        <v>42.6143493652344</v>
-      </c>
-      <c r="BK28">
         <v>43.2722282409668</v>
       </c>
     </row>
-    <row r="29" ht="15.15" spans="1:59">
+    <row r="29" hidden="1" spans="1:57">
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29"/>
-      <c r="C29" t="s">
+      <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="D29"/>
+      <c r="M29" s="3">
+        <v>1412.2716</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1493.5638</v>
+      </c>
       <c r="O29" s="3">
-        <v>1412.2716</v>
+        <v>1581.2814</v>
       </c>
       <c r="P29" s="3">
-        <v>1493.5638</v>
+        <v>1677.4865</v>
       </c>
       <c r="Q29" s="3">
-        <v>1581.2814</v>
+        <v>1872.0756</v>
       </c>
       <c r="R29" s="3">
-        <v>1677.4865</v>
+        <v>2008.7102</v>
       </c>
       <c r="S29" s="3">
-        <v>1872.0756</v>
+        <v>2094.7688</v>
       </c>
       <c r="T29" s="3">
-        <v>2008.7102</v>
+        <v>2146.3638</v>
       </c>
       <c r="U29" s="3">
-        <v>2094.7688</v>
+        <v>2192.4836</v>
       </c>
       <c r="V29" s="3">
-        <v>2146.3638</v>
+        <v>2222.0054</v>
       </c>
       <c r="W29" s="3">
-        <v>2192.4836</v>
+        <v>2238.4419</v>
       </c>
       <c r="X29" s="3">
-        <v>2222.0054</v>
+        <v>2281.8193</v>
       </c>
       <c r="Y29" s="3">
-        <v>2238.4419</v>
+        <v>2278.6853</v>
       </c>
       <c r="Z29" s="3">
-        <v>2281.8193</v>
+        <v>2322.3271</v>
       </c>
       <c r="AA29" s="3">
-        <v>2278.6853</v>
+        <v>2349.2666</v>
       </c>
       <c r="AB29" s="3">
-        <v>2322.3271</v>
+        <v>2388.3091</v>
       </c>
       <c r="AC29" s="3">
-        <v>2349.2666</v>
+        <v>2483.031</v>
       </c>
       <c r="AD29" s="3">
-        <v>2388.3091</v>
+        <v>2462.6528</v>
       </c>
       <c r="AE29" s="3">
-        <v>2483.031</v>
+        <v>2590.5439</v>
       </c>
       <c r="AF29" s="3">
-        <v>2462.6528</v>
+        <v>2673.8706</v>
       </c>
       <c r="AG29" s="3">
-        <v>2590.5439</v>
+        <v>2837.2153</v>
       </c>
       <c r="AH29" s="3">
-        <v>2673.8706</v>
+        <v>3085.1646</v>
       </c>
       <c r="AI29" s="3">
-        <v>2837.2153</v>
+        <v>3189.3755</v>
       </c>
       <c r="AJ29" s="3">
-        <v>3085.1646</v>
+        <v>5201.6953</v>
       </c>
       <c r="AK29" s="3">
-        <v>3189.3755</v>
+        <v>5202.7539</v>
       </c>
       <c r="AL29" s="3">
-        <v>5201.6953</v>
+        <v>5324.1943</v>
       </c>
       <c r="AM29" s="3">
-        <v>5202.7539</v>
+        <v>5472.5264</v>
       </c>
       <c r="AN29" s="3">
-        <v>5324.1943</v>
+        <v>5626.585</v>
       </c>
       <c r="AO29" s="3">
-        <v>5472.5264</v>
+        <v>4645.6992</v>
       </c>
       <c r="AP29" s="3">
-        <v>5626.585</v>
+        <v>4472.623</v>
       </c>
       <c r="AQ29" s="3">
-        <v>4645.6992</v>
+        <v>4423.0957</v>
       </c>
       <c r="AR29" s="3">
-        <v>4472.623</v>
+        <v>4498.9556</v>
       </c>
       <c r="AS29" s="3">
-        <v>4423.0957</v>
+        <v>5186.9941</v>
       </c>
       <c r="AT29" s="3">
-        <v>4498.9556</v>
+        <v>5097.3599</v>
       </c>
       <c r="AU29" s="3">
-        <v>5186.9941</v>
+        <v>5018.6348</v>
       </c>
       <c r="AV29" s="3">
-        <v>5097.3599</v>
+        <v>5053.6387</v>
       </c>
       <c r="AW29" s="3">
-        <v>5018.6348</v>
+        <v>5047.7603</v>
       </c>
       <c r="AX29" s="3">
-        <v>5053.6387</v>
+        <v>5166.4648</v>
       </c>
       <c r="AY29" s="3">
-        <v>5047.7603</v>
+        <v>5230.6309</v>
       </c>
       <c r="AZ29" s="3">
-        <v>5166.4648</v>
+        <v>5511.2861</v>
       </c>
       <c r="BA29" s="3">
-        <v>5230.6309</v>
+        <v>5759.5806</v>
       </c>
       <c r="BB29" s="3">
-        <v>5511.2861</v>
+        <v>5874.5239</v>
       </c>
       <c r="BC29" s="3">
-        <v>5759.5806</v>
+        <v>5954.2607</v>
       </c>
       <c r="BD29" s="3">
-        <v>5874.5239</v>
+        <v>5975.291</v>
       </c>
       <c r="BE29" s="3">
-        <v>5954.2607</v>
-      </c>
-      <c r="BF29" s="3">
-        <v>5975.291</v>
-      </c>
-      <c r="BG29" s="3">
         <v>6153.1592</v>
       </c>
     </row>
-    <row r="31" spans="1:63">
+    <row r="30" hidden="1"/>
+    <row r="31" hidden="1" spans="1:61">
       <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="B31"/>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="D31"/>
-      <c r="U31">
+      <c r="S31">
         <v>48.0385704040527</v>
       </c>
-      <c r="AE31">
+      <c r="AC31">
         <v>70.5915298461914</v>
       </c>
+      <c r="AF31">
+        <v>83.0890426635742</v>
+      </c>
+      <c r="AG31">
+        <v>90.5283508300781</v>
+      </c>
       <c r="AH31">
-        <v>83.0890426635742</v>
+        <v>95.5493392944336</v>
       </c>
       <c r="AI31">
-        <v>90.5283508300781</v>
+        <v>97.6102066040039</v>
       </c>
       <c r="AJ31">
-        <v>95.5493392944336</v>
+        <v>88.2205200195313</v>
       </c>
       <c r="AK31">
-        <v>97.6102066040039</v>
+        <v>90.0974502563477</v>
       </c>
       <c r="AL31">
-        <v>88.2205200195313</v>
+        <v>90.5423965454102</v>
       </c>
       <c r="AM31">
-        <v>90.0974502563477</v>
-      </c>
-      <c r="AN31">
-        <v>90.5423965454102</v>
+        <v>89.2137680053711</v>
       </c>
       <c r="AO31">
-        <v>89.2137680053711</v>
+        <v>59.501880645752</v>
+      </c>
+      <c r="AP31">
+        <v>60.2518692016602</v>
       </c>
       <c r="AQ31">
-        <v>59.501880645752</v>
-      </c>
-      <c r="AR31">
-        <v>60.2518692016602</v>
+        <v>59.1144599914551</v>
       </c>
       <c r="AS31">
-        <v>59.1144599914551</v>
-      </c>
-      <c r="AU31">
         <v>59.5465888977051</v>
       </c>
+      <c r="AX31">
+        <v>63.6000595092773</v>
+      </c>
+      <c r="AY31">
+        <v>63.7673988342285</v>
+      </c>
       <c r="AZ31">
-        <v>63.6000595092773</v>
+        <v>63.0657691955566</v>
       </c>
       <c r="BA31">
-        <v>63.7673988342285</v>
+        <v>61.6558494567871</v>
       </c>
       <c r="BB31">
-        <v>63.0657691955566</v>
+        <v>63.4673194885254</v>
       </c>
       <c r="BC31">
-        <v>61.6558494567871</v>
+        <v>63.980770111084</v>
       </c>
       <c r="BD31">
-        <v>63.4673194885254</v>
+        <v>65.3322982788086</v>
       </c>
       <c r="BE31">
-        <v>63.980770111084</v>
+        <v>65.612907409668</v>
       </c>
       <c r="BF31">
-        <v>65.3322982788086</v>
+        <v>64.7869567871094</v>
       </c>
       <c r="BG31">
-        <v>65.612907409668</v>
+        <v>66.4391784667969</v>
       </c>
       <c r="BH31">
-        <v>64.7869567871094</v>
+        <v>68.9225082397461</v>
       </c>
       <c r="BI31">
-        <v>66.4391784667969</v>
-      </c>
-      <c r="BJ31">
-        <v>68.9225082397461</v>
-      </c>
-      <c r="BK31">
         <v>70.1130218505859</v>
       </c>
     </row>
-    <row r="32" spans="1:61">
+    <row r="32" hidden="1" spans="1:59">
       <c r="A32" t="s">
         <v>12</v>
       </c>
-      <c r="B32"/>
-      <c r="C32" t="s">
+      <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="D32"/>
-      <c r="AQ32">
+      <c r="AO32">
         <v>42.85008</v>
       </c>
+      <c r="AX32">
+        <v>40.28518</v>
+      </c>
+      <c r="AY32">
+        <v>36.35893</v>
+      </c>
       <c r="AZ32">
-        <v>40.28518</v>
+        <v>40.19827</v>
       </c>
       <c r="BA32">
-        <v>36.35893</v>
+        <v>44.68562</v>
       </c>
       <c r="BB32">
-        <v>40.19827</v>
-      </c>
-      <c r="BC32">
-        <v>44.68562</v>
+        <v>43.07659</v>
       </c>
       <c r="BD32">
-        <v>43.07659</v>
+        <v>29.65255</v>
+      </c>
+      <c r="BE32">
+        <v>36.99843</v>
       </c>
       <c r="BF32">
-        <v>29.65255</v>
+        <v>36.93396</v>
       </c>
       <c r="BG32">
-        <v>36.99843</v>
-      </c>
-      <c r="BH32">
-        <v>36.93396</v>
-      </c>
-      <c r="BI32">
         <v>31.44008</v>
       </c>
     </row>
-    <row r="33" spans="1:56">
+    <row r="33" spans="1:54">
       <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B33"/>
-      <c r="C33" t="s">
+      <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="D33"/>
+      <c r="N33">
+        <v>31.36184</v>
+      </c>
+      <c r="O33">
+        <v>31.36655</v>
+      </c>
       <c r="P33">
-        <v>31.36184</v>
+        <v>31.12949</v>
       </c>
       <c r="Q33">
-        <v>31.36655</v>
+        <v>30.71697</v>
       </c>
       <c r="R33">
-        <v>31.12949</v>
+        <v>31.43102</v>
       </c>
       <c r="S33">
-        <v>30.71697</v>
+        <v>31.438</v>
       </c>
       <c r="T33">
-        <v>31.43102</v>
+        <v>29.61135</v>
       </c>
       <c r="U33">
-        <v>31.438</v>
+        <v>29.07323</v>
       </c>
       <c r="V33">
-        <v>29.61135</v>
+        <v>30.57821</v>
       </c>
       <c r="W33">
-        <v>29.07323</v>
+        <v>29.79349</v>
       </c>
       <c r="X33">
-        <v>30.57821</v>
+        <v>29.90282</v>
       </c>
       <c r="Y33">
-        <v>29.79349</v>
+        <v>29.37821</v>
       </c>
       <c r="Z33">
-        <v>29.90282</v>
+        <v>30.06431</v>
       </c>
       <c r="AA33">
-        <v>29.37821</v>
+        <v>30.931</v>
       </c>
       <c r="AB33">
-        <v>30.06431</v>
+        <v>30.52069</v>
       </c>
       <c r="AC33">
-        <v>30.931</v>
+        <v>31.02303</v>
       </c>
       <c r="AD33">
-        <v>30.52069</v>
+        <v>30.89166</v>
       </c>
       <c r="AE33">
-        <v>31.02303</v>
+        <v>30.8411</v>
       </c>
       <c r="AF33">
-        <v>30.89166</v>
+        <v>31.69809</v>
       </c>
       <c r="AG33">
-        <v>30.8411</v>
+        <v>31.81251</v>
       </c>
       <c r="AH33">
-        <v>31.69809</v>
+        <v>28.13155</v>
       </c>
       <c r="AI33">
-        <v>31.81251</v>
+        <v>30.75022</v>
       </c>
       <c r="AJ33">
-        <v>28.13155</v>
+        <v>27.7808</v>
       </c>
       <c r="AK33">
-        <v>30.75022</v>
+        <v>34.57579</v>
       </c>
       <c r="AL33">
-        <v>27.7808</v>
-      </c>
-      <c r="AM33">
-        <v>34.57579</v>
-      </c>
-      <c r="AN33">
         <v>35.26796</v>
       </c>
-      <c r="AQ33">
+      <c r="AO33">
         <v>31.00068</v>
       </c>
+      <c r="AX33">
+        <v>36.81221</v>
+      </c>
+      <c r="AY33">
+        <v>34.44431</v>
+      </c>
       <c r="AZ33">
-        <v>36.81221</v>
+        <v>36.06861</v>
       </c>
       <c r="BA33">
-        <v>34.44431</v>
+        <v>35.38945</v>
       </c>
       <c r="BB33">
-        <v>36.06861</v>
-      </c>
-      <c r="BC33">
-        <v>35.38945</v>
-      </c>
-      <c r="BD33">
         <v>35.5994</v>
       </c>
     </row>
-    <row r="34" ht="15.15" spans="1:61">
+    <row r="34" hidden="1" spans="1:59">
       <c r="A34" t="s">
         <v>12</v>
       </c>
-      <c r="B34"/>
-      <c r="C34" t="s">
+      <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="D34"/>
-      <c r="AT34">
+      <c r="AR34">
         <v>40.2759704589844</v>
       </c>
-      <c r="AY34">
+      <c r="AW34">
         <v>43.8632698059082</v>
       </c>
-      <c r="BD34">
+      <c r="BB34">
         <v>47.6745681762695</v>
       </c>
-      <c r="BI34">
+      <c r="BG34">
         <v>49.667610168457</v>
       </c>
     </row>
-    <row r="35" ht="15.15" spans="1:44">
+    <row r="35" hidden="1" spans="1:42">
       <c r="A35" t="s">
         <v>12</v>
       </c>
-      <c r="B35"/>
-      <c r="C35" t="s">
+      <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="D35"/>
-      <c r="U35" s="5">
+      <c r="S35" s="5">
         <v>4686.1372</v>
       </c>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
@@ -3407,311 +3348,285 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
+      <c r="AC35" s="5">
+        <v>6395.062</v>
+      </c>
       <c r="AD35" s="4"/>
-      <c r="AE35" s="5">
-        <v>6395.062</v>
-      </c>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="5">
+        <v>6471.9268</v>
+      </c>
+      <c r="AG35" s="5">
+        <v>6654.6445</v>
+      </c>
       <c r="AH35" s="5">
-        <v>6471.9268</v>
+        <v>6842.272</v>
       </c>
       <c r="AI35" s="5">
-        <v>6654.6445</v>
+        <v>6852.0308</v>
       </c>
       <c r="AJ35" s="5">
-        <v>6842.272</v>
+        <v>6090.875</v>
       </c>
       <c r="AK35" s="5">
-        <v>6852.0308</v>
+        <v>6127.752</v>
       </c>
       <c r="AL35" s="5">
-        <v>6090.875</v>
+        <v>6087.8765</v>
       </c>
       <c r="AM35" s="5">
-        <v>6127.752</v>
-      </c>
-      <c r="AN35" s="5">
-        <v>6087.8765</v>
-      </c>
+        <v>5958.2573</v>
+      </c>
+      <c r="AN35" s="4"/>
       <c r="AO35" s="5">
-        <v>5958.2573</v>
-      </c>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="5">
         <v>3956.0928</v>
       </c>
-      <c r="AR35" s="5">
+      <c r="AP35" s="5">
         <v>4012.6309</v>
       </c>
     </row>
-    <row r="37" spans="1:63">
+    <row r="36" hidden="1"/>
+    <row r="37" hidden="1" spans="1:61">
       <c r="A37" t="s">
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" t="s">
         <v>4</v>
       </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="O37">
+      <c r="M37">
         <v>4.25699996948242</v>
       </c>
-      <c r="R37">
+      <c r="P37">
         <v>4.40316009521484</v>
       </c>
+      <c r="AE37">
+        <v>11.5201797485352</v>
+      </c>
+      <c r="AF37">
+        <v>12.4718704223633</v>
+      </c>
       <c r="AG37">
-        <v>11.5201797485352</v>
+        <v>12.618989944458</v>
       </c>
       <c r="AH37">
-        <v>12.4718704223633</v>
+        <v>12.993670463562</v>
       </c>
       <c r="AI37">
-        <v>12.618989944458</v>
+        <v>13.2086696624756</v>
       </c>
       <c r="AJ37">
-        <v>12.993670463562</v>
+        <v>14.4798402786255</v>
       </c>
       <c r="AK37">
-        <v>13.2086696624756</v>
-      </c>
-      <c r="AL37">
-        <v>14.4798402786255</v>
-      </c>
-      <c r="AM37">
         <v>15.7806301116943</v>
       </c>
+      <c r="BC37">
+        <v>19.1436595916748</v>
+      </c>
+      <c r="BD37">
+        <v>19.9304904937744</v>
+      </c>
       <c r="BE37">
-        <v>19.1436595916748</v>
-      </c>
-      <c r="BF37">
-        <v>19.9304904937744</v>
+        <v>19.8092403411865</v>
       </c>
       <c r="BG37">
-        <v>19.8092403411865</v>
+        <v>20.9184494018555</v>
+      </c>
+      <c r="BH37">
+        <v>22.3660297393799</v>
       </c>
       <c r="BI37">
-        <v>20.9184494018555</v>
-      </c>
-      <c r="BJ37">
-        <v>22.3660297393799</v>
-      </c>
-      <c r="BK37">
         <v>23.8019599914551</v>
       </c>
     </row>
-    <row r="38" spans="1:63">
+    <row r="38" hidden="1" spans="1:61">
       <c r="A38" t="s">
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
         <v>5</v>
       </c>
-      <c r="D38" t="s">
-        <v>16</v>
+      <c r="BD38">
+        <v>39.20118</v>
+      </c>
+      <c r="BE38">
+        <v>38.19787</v>
       </c>
       <c r="BF38">
-        <v>39.20118</v>
-      </c>
-      <c r="BG38">
-        <v>38.19787</v>
+        <v>40.02283</v>
       </c>
       <c r="BH38">
-        <v>40.02283</v>
-      </c>
-      <c r="BJ38">
         <v>46.83211</v>
       </c>
-      <c r="BK38">
+      <c r="BI38">
         <v>47.9767</v>
       </c>
     </row>
-    <row r="39" spans="1:63">
+    <row r="39" spans="1:61">
       <c r="A39" t="s">
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" t="s">
         <v>6</v>
       </c>
-      <c r="D39" t="s">
-        <v>17</v>
+      <c r="AD39">
+        <v>26.41817</v>
+      </c>
+      <c r="AE39">
+        <v>25.31181</v>
       </c>
       <c r="AF39">
-        <v>26.41817</v>
+        <v>26.32381</v>
       </c>
       <c r="AG39">
-        <v>25.31181</v>
+        <v>26.51544</v>
       </c>
       <c r="AH39">
-        <v>26.32381</v>
-      </c>
-      <c r="AI39">
-        <v>26.51544</v>
+        <v>23.97831</v>
       </c>
       <c r="AJ39">
-        <v>23.97831</v>
-      </c>
-      <c r="AL39">
         <v>15.5893</v>
       </c>
+      <c r="AK39">
+        <v>16.61957</v>
+      </c>
       <c r="AM39">
-        <v>16.61957</v>
-      </c>
-      <c r="AO39">
         <v>17.06743</v>
       </c>
+      <c r="AP39">
+        <v>15.24196</v>
+      </c>
+      <c r="AQ39">
+        <v>14.54785</v>
+      </c>
       <c r="AR39">
-        <v>15.24196</v>
+        <v>14.51083</v>
       </c>
       <c r="AS39">
-        <v>14.54785</v>
+        <v>14.64847</v>
       </c>
       <c r="AT39">
-        <v>14.51083</v>
+        <v>14.11076</v>
       </c>
       <c r="AU39">
-        <v>14.64847</v>
+        <v>13.32329</v>
       </c>
       <c r="AV39">
-        <v>14.11076</v>
+        <v>15.05485</v>
       </c>
       <c r="AW39">
-        <v>13.32329</v>
+        <v>12.84803</v>
       </c>
       <c r="AX39">
-        <v>15.05485</v>
+        <v>13.09539</v>
       </c>
       <c r="AY39">
-        <v>12.84803</v>
+        <v>13.00968</v>
       </c>
       <c r="AZ39">
-        <v>13.09539</v>
+        <v>12.53358</v>
       </c>
       <c r="BA39">
-        <v>13.00968</v>
+        <v>11.87729</v>
       </c>
       <c r="BB39">
-        <v>12.53358</v>
+        <v>11.70836</v>
       </c>
       <c r="BC39">
-        <v>11.87729</v>
+        <v>11.91283</v>
       </c>
       <c r="BD39">
-        <v>11.70836</v>
+        <v>12.40889</v>
       </c>
       <c r="BE39">
-        <v>11.91283</v>
+        <v>12.18509</v>
       </c>
       <c r="BF39">
-        <v>12.40889</v>
-      </c>
-      <c r="BG39">
-        <v>12.18509</v>
+        <v>12.54746</v>
       </c>
       <c r="BH39">
-        <v>12.54746</v>
-      </c>
-      <c r="BJ39">
         <v>14.36148</v>
       </c>
-      <c r="BK39">
+      <c r="BI39">
         <v>15.25153</v>
       </c>
     </row>
-    <row r="40" ht="15.15" spans="1:62">
+    <row r="40" hidden="1" spans="1:60">
       <c r="A40" t="s">
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" t="s">
         <v>7</v>
       </c>
-      <c r="D40" t="s">
-        <v>18</v>
-      </c>
-      <c r="O40">
+      <c r="M40">
         <v>3.6603798866272</v>
       </c>
-      <c r="Y40">
+      <c r="W40">
         <v>1.35476005077362</v>
       </c>
-      <c r="AD40">
+      <c r="AB40">
         <v>2.30001997947693</v>
       </c>
+      <c r="AS40">
+        <v>4.75122022628784</v>
+      </c>
+      <c r="AT40">
+        <v>5.48101997375488</v>
+      </c>
       <c r="AU40">
-        <v>4.75122022628784</v>
+        <v>4.90361022949219</v>
       </c>
       <c r="AV40">
-        <v>5.48101997375488</v>
+        <v>4.18779993057251</v>
       </c>
       <c r="AW40">
-        <v>4.90361022949219</v>
+        <v>4.16617012023926</v>
       </c>
       <c r="AX40">
-        <v>4.18779993057251</v>
+        <v>4.386390209198</v>
       </c>
       <c r="AY40">
-        <v>4.16617012023926</v>
+        <v>4.65347003936768</v>
       </c>
       <c r="AZ40">
-        <v>4.386390209198</v>
+        <v>5.83430004119873</v>
       </c>
       <c r="BA40">
-        <v>4.65347003936768</v>
+        <v>6.18814992904663</v>
       </c>
       <c r="BB40">
-        <v>5.83430004119873</v>
+        <v>6.14247989654541</v>
       </c>
       <c r="BC40">
-        <v>6.18814992904663</v>
-      </c>
-      <c r="BD40">
-        <v>6.14247989654541</v>
+        <v>6.45047998428345</v>
       </c>
       <c r="BE40">
-        <v>6.45047998428345</v>
-      </c>
-      <c r="BG40">
         <v>7.13677978515625</v>
       </c>
+      <c r="BF40">
+        <v>7.81812000274658</v>
+      </c>
       <c r="BH40">
-        <v>7.81812000274658</v>
-      </c>
-      <c r="BJ40">
         <v>11.8335399627686</v>
       </c>
     </row>
-    <row r="41" ht="15.15" spans="1:58">
+    <row r="41" hidden="1" spans="1:56">
       <c r="A41" t="s">
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="O41" s="4">
+      <c r="M41" s="4">
         <v>369.1421</v>
       </c>
-      <c r="P41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4">
+        <v>406.0713</v>
+      </c>
       <c r="Q41" s="4"/>
-      <c r="R41" s="4">
-        <v>406.0713</v>
-      </c>
+      <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
@@ -3724,29 +3639,29 @@
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
+      <c r="AE41" s="5">
+        <v>1080.2727</v>
+      </c>
+      <c r="AF41" s="5">
+        <v>1175.5652</v>
+      </c>
       <c r="AG41" s="5">
-        <v>1080.2727</v>
+        <v>1193.1649</v>
       </c>
       <c r="AH41" s="5">
-        <v>1175.5652</v>
+        <v>1239.3199</v>
       </c>
       <c r="AI41" s="5">
-        <v>1193.1649</v>
+        <v>1268.183</v>
       </c>
       <c r="AJ41" s="5">
-        <v>1239.3199</v>
+        <v>1395.6447</v>
       </c>
       <c r="AK41" s="5">
-        <v>1268.183</v>
-      </c>
-      <c r="AL41" s="5">
-        <v>1395.6447</v>
-      </c>
-      <c r="AM41" s="5">
         <v>1523.4712</v>
       </c>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
       <c r="AN41" s="4"/>
       <c r="AO41" s="4"/>
       <c r="AP41" s="4"/>
@@ -3762,16 +3677,22 @@
       <c r="AZ41" s="4"/>
       <c r="BA41" s="4"/>
       <c r="BB41" s="4"/>
-      <c r="BC41" s="4"/>
-      <c r="BD41" s="4"/>
-      <c r="BE41" s="5">
+      <c r="BC41" s="5">
         <v>1903.4309</v>
       </c>
-      <c r="BF41" s="5">
+      <c r="BD41" s="5">
         <v>1938.7117</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B41">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="equal" val="Expenditure on tertiary education (% of government expenditure on education)"/>
+      </customFilters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
